--- a/Data/crude-oil-360.xlsx
+++ b/Data/crude-oil-360.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Homework\Project_3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0BBB45-0962-45FD-935F-45E375A3608A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC9553-D9D3-4175-B446-F5A655C0F062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crude-oil-360" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'crude-oil-360'!$A$2:$F$455</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -622,10 +625,6 @@
     <xf numFmtId="2" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -635,6 +634,10 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,7 +997,7 @@
   <dimension ref="A1:F455"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C95"/>
+      <selection activeCell="A3" sqref="A3:A455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,14 +1008,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1038,17 +1041,17 @@
       <c r="A3" s="2">
         <v>29952</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>33.9</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>43.245870890667703</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D66" si="0">($C$455/C3)</f>
         <v>2.7227889713679665</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E66" si="1">B3*D3</f>
         <v>92.302546129374065</v>
       </c>
@@ -1058,17 +1061,17 @@
       <c r="A4" s="2">
         <v>29983</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>31.6</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>43.383450543554297</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>2.7141543340380432</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <f t="shared" si="1"/>
         <v>85.767276955602171</v>
       </c>
@@ -1078,17 +1081,17 @@
       <c r="A5" s="2">
         <v>30011</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>28.5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>43.337590659258801</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>2.7170264550264425</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <f t="shared" si="1"/>
         <v>77.435253968253605</v>
       </c>
@@ -1098,17 +1101,17 @@
       <c r="A6" s="2">
         <v>30042</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>33.5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>43.521030196440798</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>2.7055742887249643</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
         <v>90.636738672286299</v>
       </c>
@@ -1118,17 +1121,17 @@
       <c r="A7" s="2">
         <v>30072</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>35.9</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>43.9337691551004</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>2.6801565762004085</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
         <v>96.217621085594658</v>
       </c>
@@ -1138,17 +1141,17 @@
       <c r="A8" s="2">
         <v>30103</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>35.1</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>44.484087766646603</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>2.6469999999999874</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
         <v>92.90969999999956</v>
       </c>
@@ -1158,17 +1161,17 @@
       <c r="A9" s="2">
         <v>30133</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>34.200000000000003</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>44.713387188124102</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>2.633425641025632</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>90.063156923076619</v>
       </c>
@@ -1178,17 +1181,17 @@
       <c r="A10" s="2">
         <v>30164</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>34</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>44.8051069567151</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>2.6280348004094094</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>89.35318321391992</v>
       </c>
@@ -1198,17 +1201,17 @@
       <c r="A11" s="2">
         <v>30195</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>35.6</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>44.896826725306198</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>2.6226659856996819</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <f t="shared" si="1"/>
         <v>93.366909090908678</v>
       </c>
@@ -1218,17 +1221,17 @@
       <c r="A12" s="2">
         <v>30225</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>35.700000000000003</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>45.034406378192699</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>2.6146537678207644</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <f t="shared" si="1"/>
         <v>93.343139511201301</v>
       </c>
@@ -1238,17 +1241,17 @@
       <c r="A13" s="2">
         <v>30256</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>34.200000000000003</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>44.942686609601701</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>2.619989795918356</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <f t="shared" si="1"/>
         <v>89.603651020407781</v>
       </c>
@@ -1258,17 +1261,17 @@
       <c r="A14" s="2">
         <v>30286</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>31.7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>44.759247072419598</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>2.6307274590163856</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <f t="shared" si="1"/>
         <v>83.394060450819424</v>
       </c>
@@ -1278,17 +1281,17 @@
       <c r="A15" s="2">
         <v>30317</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>31.2</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>44.850966841010703</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>2.6253476482617462</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <f t="shared" si="1"/>
         <v>81.910846625766482</v>
       </c>
@@ -1298,17 +1301,17 @@
       <c r="A16" s="2">
         <v>30348</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>29</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>44.896826725306198</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>2.6226659856996819</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <f t="shared" si="1"/>
         <v>76.057313585290771</v>
       </c>
@@ -1318,17 +1321,17 @@
       <c r="A17" s="2">
         <v>30376</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>28.8</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>44.896826725306198</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>2.6226659856996819</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <f t="shared" si="1"/>
         <v>75.53278038815084</v>
       </c>
@@ -1338,17 +1341,17 @@
       <c r="A18" s="2">
         <v>30407</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>30.6</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>45.217845915374802</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>2.6040466531440036</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <f t="shared" si="1"/>
         <v>79.683827586206519</v>
       </c>
@@ -1358,17 +1361,17 @@
       <c r="A19" s="2">
         <v>30437</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>30</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>45.493005221147797</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>2.5882963709677336</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <f t="shared" si="1"/>
         <v>77.648891129032009</v>
       </c>
@@ -1378,17 +1381,17 @@
       <c r="A20" s="2">
         <v>30468</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>31</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>45.630584874034398</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>2.5804924623115459</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <f t="shared" si="1"/>
         <v>79.99526633165793</v>
       </c>
@@ -1398,17 +1401,17 @@
       <c r="A21" s="2">
         <v>30498</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>31.7</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>45.814024411216401</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>2.5701601601601509</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <f t="shared" si="1"/>
         <v>81.474077077076785</v>
       </c>
@@ -1418,17 +1421,17 @@
       <c r="A22" s="2">
         <v>30529</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>31.9</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>45.951604064102902</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>2.5624650698602718</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <f t="shared" si="1"/>
         <v>81.742635728542666</v>
       </c>
@@ -1438,17 +1441,17 @@
       <c r="A23" s="2">
         <v>30560</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>31.1</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>46.180903485580501</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <f t="shared" si="0"/>
         <v>2.5497418073485503</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <f t="shared" si="1"/>
         <v>79.296970208539918</v>
       </c>
@@ -1458,17 +1461,17 @@
       <c r="A24" s="2">
         <v>30590</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>30.4</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>46.318483138467002</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>2.5421683168316753</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <f t="shared" si="1"/>
         <v>77.281916831682921</v>
       </c>
@@ -1478,17 +1481,17 @@
       <c r="A25" s="2">
         <v>30621</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>29.8</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>46.4102029070581</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <f t="shared" si="0"/>
         <v>2.5371442687746919</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <f t="shared" si="1"/>
         <v>75.606899209485817</v>
       </c>
@@ -1498,17 +1501,17 @@
       <c r="A26" s="2">
         <v>30651</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>29.2</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>46.456062791353602</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>2.5346396841066028</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
         <f t="shared" si="1"/>
         <v>74.011478775912806</v>
       </c>
@@ -1518,17 +1521,17 @@
       <c r="A27" s="2">
         <v>30682</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>29.7</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <v>46.731222097126597</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>2.5197154072620145</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="12">
         <f t="shared" si="1"/>
         <v>74.835547595681831</v>
       </c>
@@ -1538,17 +1541,17 @@
       <c r="A28" s="2">
         <v>30713</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>30.1</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>46.960521518604203</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <f t="shared" si="0"/>
         <v>2.5074121093749904</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
         <f t="shared" si="1"/>
         <v>75.473104492187218</v>
       </c>
@@ -1558,17 +1561,17 @@
       <c r="A29" s="2">
         <v>30742</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>30.8</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="12">
         <v>47.052241287195201</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <f t="shared" si="0"/>
         <v>2.5025243664717269</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="12">
         <f t="shared" si="1"/>
         <v>77.077750487329197</v>
       </c>
@@ -1578,17 +1581,17 @@
       <c r="A30" s="2">
         <v>30773</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>30.6</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>47.2815407086728</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <f t="shared" si="0"/>
         <v>2.4903879728418912</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="12">
         <f t="shared" si="1"/>
         <v>76.205871968961873</v>
       </c>
@@ -1598,17 +1601,17 @@
       <c r="A31" s="2">
         <v>30803</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>30.5</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="12">
         <v>47.419120361559301</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <f t="shared" si="0"/>
         <v>2.4831624758220419</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <f t="shared" si="1"/>
         <v>75.736455512572277</v>
       </c>
@@ -1618,17 +1621,17 @@
       <c r="A32" s="2">
         <v>30834</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <v>30</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="13">
         <v>47.556700014445902</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <f t="shared" si="0"/>
         <v>2.475978784956594</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="12">
         <f t="shared" si="1"/>
         <v>74.279363548697816</v>
       </c>
@@ -1638,17 +1641,17 @@
       <c r="A33" s="2">
         <v>30864</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="14">
         <v>28.8</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>47.740139551627898</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <f t="shared" si="0"/>
         <v>2.4664649375600294</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <f t="shared" si="1"/>
         <v>71.034190201728848</v>
       </c>
@@ -1658,17 +1661,17 @@
       <c r="A34" s="2">
         <v>30895</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="14">
         <v>29.3</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <v>47.923579088810001</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <f t="shared" si="0"/>
         <v>2.4570239234449645</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
         <f t="shared" si="1"/>
         <v>71.990800956937463</v>
       </c>
@@ -1678,17 +1681,17 @@
       <c r="A35" s="2">
         <v>30926</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <v>29.3</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <v>48.152878510287501</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <f t="shared" si="0"/>
         <v>2.445323809523801</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <f t="shared" si="1"/>
         <v>71.64798761904737</v>
       </c>
@@ -1698,17 +1701,17 @@
       <c r="A36" s="2">
         <v>30956</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="14">
         <v>28.8</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <v>48.290458163174101</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <f t="shared" si="0"/>
         <v>2.4383570750237298</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
         <f t="shared" si="1"/>
         <v>70.224683760683419</v>
       </c>
@@ -1718,17 +1721,17 @@
       <c r="A37" s="2">
         <v>30987</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="14">
         <v>28.1</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <v>48.290458163174101</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <f t="shared" si="0"/>
         <v>2.4383570750237298</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="12">
         <f t="shared" si="1"/>
         <v>68.517833808166813</v>
       </c>
@@ -1738,17 +1741,17 @@
       <c r="A38" s="2">
         <v>31017</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="14">
         <v>25.4</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="13">
         <v>48.290458163174101</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="12">
         <f t="shared" si="0"/>
         <v>2.4383570750237298</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="12">
         <f t="shared" si="1"/>
         <v>61.93426970560273</v>
       </c>
@@ -1758,17 +1761,17 @@
       <c r="A39" s="2">
         <v>31048</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="14">
         <v>25.6</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="12">
         <v>48.382177931765099</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="12">
         <f t="shared" si="0"/>
         <v>2.4337345971563877</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="12">
         <f t="shared" si="1"/>
         <v>62.303605687203529</v>
       </c>
@@ -1778,17 +1781,17 @@
       <c r="A40" s="2">
         <v>31079</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="14">
         <v>27.3</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="13">
         <v>48.611477353242599</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="12">
         <f t="shared" si="0"/>
         <v>2.4222547169811248</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="12">
         <f t="shared" si="1"/>
         <v>66.127553773584708</v>
       </c>
@@ -1798,17 +1801,17 @@
       <c r="A41" s="2">
         <v>31107</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="14">
         <v>28.2</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="12">
         <v>48.794916890424702</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="12">
         <f t="shared" si="0"/>
         <v>2.4131484962405914</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="12">
         <f t="shared" si="1"/>
         <v>68.05078759398468</v>
       </c>
@@ -1818,17 +1821,17 @@
       <c r="A42" s="2">
         <v>31138</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="14">
         <v>28.8</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="13">
         <v>49.024216311902201</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="12">
         <f t="shared" si="0"/>
         <v>2.4018615528531266</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="12">
         <f t="shared" si="1"/>
         <v>69.173612722170049</v>
       </c>
@@ -1838,17 +1841,17 @@
       <c r="A43" s="2">
         <v>31168</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="14">
         <v>27.6</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="12">
         <v>49.207655849084297</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="12">
         <f t="shared" si="0"/>
         <v>2.3929077353215189</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="12">
         <f t="shared" si="1"/>
         <v>66.044253494873928</v>
       </c>
@@ -1858,17 +1861,17 @@
       <c r="A44" s="2">
         <v>31199</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="14">
         <v>27.1</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="13">
         <v>49.345235501970798</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="12">
         <f t="shared" si="0"/>
         <v>2.386236059479546</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="12">
         <f t="shared" si="1"/>
         <v>64.666997211895705</v>
       </c>
@@ -1878,17 +1881,17 @@
       <c r="A45" s="2">
         <v>31229</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="14">
         <v>27.3</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="12">
         <v>49.436955270561903</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="12">
         <f t="shared" si="0"/>
         <v>2.3818089053803222</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="12">
         <f t="shared" si="1"/>
         <v>65.023383116882798</v>
       </c>
@@ -1898,17 +1901,17 @@
       <c r="A46" s="2">
         <v>31260</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="14">
         <v>27.8</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="13">
         <v>49.528675039152901</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="12">
         <f t="shared" si="0"/>
         <v>2.3773981481481377</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="12">
         <f t="shared" si="1"/>
         <v>66.091668518518233</v>
       </c>
@@ -1918,17 +1921,17 @@
       <c r="A47" s="2">
         <v>31291</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="14">
         <v>28.3</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="12">
         <v>49.666254692039402</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="12">
         <f t="shared" si="0"/>
         <v>2.3708125577100558</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="12">
         <f t="shared" si="1"/>
         <v>67.093995383194581</v>
       </c>
@@ -1938,17 +1941,17 @@
       <c r="A48" s="2">
         <v>31321</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="14">
         <v>29.5</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="13">
         <v>49.849694229221498</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="12">
         <f t="shared" si="0"/>
         <v>2.3620883164673305</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="12">
         <f t="shared" si="1"/>
         <v>69.681605335786244</v>
       </c>
@@ -1958,17 +1961,17 @@
       <c r="A49" s="2">
         <v>31352</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="14">
         <v>30.8</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="12">
         <v>49.987273882107999</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12">
         <f t="shared" si="0"/>
         <v>2.3555871559632933</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="12">
         <f t="shared" si="1"/>
         <v>72.55208440366944</v>
       </c>
@@ -1978,17 +1981,17 @@
       <c r="A50" s="2">
         <v>31382</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="14">
         <v>27.2</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="13">
         <v>50.1248535349945</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="12">
         <f t="shared" si="0"/>
         <v>2.3491216834400657</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="12">
         <f t="shared" si="1"/>
         <v>63.896109789569785</v>
       </c>
@@ -1998,17 +2001,17 @@
       <c r="A51" s="2">
         <v>31413</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="14">
         <v>22.9</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="12">
         <v>50.262433187881101</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <f t="shared" si="0"/>
         <v>2.3426916058394056</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="12">
         <f t="shared" si="1"/>
         <v>53.647637773722387</v>
       </c>
@@ -2018,17 +2021,17 @@
       <c r="A52" s="2">
         <v>31444</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="14">
         <v>15.4</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="13">
         <v>50.1248535349945</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="12">
         <f t="shared" si="0"/>
         <v>2.3491216834400657</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="12">
         <f t="shared" si="1"/>
         <v>36.17647392497701</v>
       </c>
@@ -2038,17 +2041,17 @@
       <c r="A53" s="2">
         <v>31472</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="14">
         <v>12.6</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="12">
         <v>49.895554113517001</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="12">
         <f t="shared" si="0"/>
         <v>2.359917279411754</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="12">
         <f t="shared" si="1"/>
         <v>29.734957720588099</v>
       </c>
@@ -2058,17 +2061,17 @@
       <c r="A54" s="2">
         <v>31503</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="14">
         <v>12.8</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="13">
         <v>49.803834344925903</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="12">
         <f t="shared" si="0"/>
         <v>2.3642633517495324</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="12">
         <f t="shared" si="1"/>
         <v>30.262570902394017</v>
       </c>
@@ -2078,17 +2081,17 @@
       <c r="A55" s="2">
         <v>31533</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="14">
         <v>15.4</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="12">
         <v>49.941413997812496</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="12">
         <f t="shared" si="0"/>
         <v>2.3577502295684019</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="12">
         <f t="shared" si="1"/>
         <v>36.309353535353388</v>
       </c>
@@ -2098,17 +2101,17 @@
       <c r="A56" s="2">
         <v>31564</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="14">
         <v>13.5</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="13">
         <v>50.216573303585598</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="12">
         <f t="shared" si="0"/>
         <v>2.3448310502282994</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="12">
         <f t="shared" si="1"/>
         <v>31.655219178082042</v>
       </c>
@@ -2118,17 +2121,17 @@
       <c r="A57" s="2">
         <v>31594</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>11.6</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="12">
         <v>50.216573303585598</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="12">
         <f t="shared" si="0"/>
         <v>2.3448310502282994</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="12">
         <f t="shared" si="1"/>
         <v>27.200040182648273</v>
       </c>
@@ -2138,17 +2141,17 @@
       <c r="A58" s="2">
         <v>31625</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="14">
         <v>15.1</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="13">
         <v>50.308293072176603</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="12">
         <f t="shared" si="0"/>
         <v>2.3405560619872277</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="12">
         <f t="shared" si="1"/>
         <v>35.342396536007136</v>
       </c>
@@ -2158,17 +2161,17 @@
       <c r="A59" s="2">
         <v>31656</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="14">
         <v>14.9</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="12">
         <v>50.537592493654103</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="12">
         <f t="shared" si="0"/>
         <v>2.329936479128849</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="12">
         <f t="shared" si="1"/>
         <v>34.716053539019853</v>
       </c>
@@ -2178,17 +2181,17 @@
       <c r="A60" s="2">
         <v>31686</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>14.9</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="13">
         <v>50.583452377949598</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="12">
         <f t="shared" si="0"/>
         <v>2.3278241160471373</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="12">
         <f t="shared" si="1"/>
         <v>34.684579329102348</v>
       </c>
@@ -2198,17 +2201,17 @@
       <c r="A61" s="2">
         <v>31717</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="14">
         <v>15.2</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="12">
         <v>50.6293122622452</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="12">
         <f t="shared" si="0"/>
         <v>2.3257155797101343</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="12">
         <f t="shared" si="1"/>
         <v>35.350876811594041</v>
       </c>
@@ -2218,17 +2221,17 @@
       <c r="A62" s="2">
         <v>31747</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="14">
         <v>16.100000000000001</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="13">
         <v>50.675172146540703</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="12">
         <f t="shared" si="0"/>
         <v>2.3236108597284963</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="12">
         <f t="shared" si="1"/>
         <v>37.410134841628796</v>
       </c>
@@ -2238,17 +2241,17 @@
       <c r="A63" s="2">
         <v>31778</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="14">
         <v>18.7</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="12">
         <v>50.9961913366093</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="12">
         <f t="shared" si="0"/>
         <v>2.3089838129496294</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="12">
         <f t="shared" si="1"/>
         <v>43.177997302158069</v>
       </c>
@@ -2258,17 +2261,17 @@
       <c r="A64" s="2">
         <v>31809</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="14">
         <v>17.7</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="13">
         <v>51.179630873791297</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="12">
         <f t="shared" si="0"/>
         <v>2.300707885304651</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="12">
         <f t="shared" si="1"/>
         <v>40.722529569892323</v>
       </c>
@@ -2278,17 +2281,17 @@
       <c r="A65" s="2">
         <v>31837</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="14">
         <v>18.3</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="12">
         <v>51.408930295268902</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="12">
         <f t="shared" si="0"/>
         <v>2.290446030330052</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="12">
         <f t="shared" si="1"/>
         <v>41.915162355039953</v>
       </c>
@@ -2298,17 +2301,17 @@
       <c r="A66" s="2">
         <v>31868</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="14">
         <v>18.600000000000001</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="13">
         <v>51.684089601041897</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="12">
         <f t="shared" si="0"/>
         <v>2.2782519964507473</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="12">
         <f t="shared" si="1"/>
         <v>42.375487133983903</v>
       </c>
@@ -2318,17 +2321,17 @@
       <c r="A67" s="2">
         <v>31898</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="14">
         <v>19.399999999999999</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="12">
         <v>51.867529138224</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="12">
         <f t="shared" ref="D67:D95" si="2">($C$455/C67)</f>
         <v>2.270194518125543</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="12">
         <f t="shared" ref="E67:E95" si="3">B67*D67</f>
         <v>44.04177365163553</v>
       </c>
@@ -2338,17 +2341,17 @@
       <c r="A68" s="2">
         <v>31929</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="14">
         <v>20</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="13">
         <v>52.050968675405997</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="12">
         <f t="shared" si="2"/>
         <v>2.2621938325991118</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="12">
         <f t="shared" si="3"/>
         <v>45.243876651982234</v>
       </c>
@@ -2358,17 +2361,17 @@
       <c r="A69" s="2">
         <v>31959</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="14">
         <v>21.4</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="12">
         <v>52.188548328292597</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="12">
         <f t="shared" si="2"/>
         <v>2.2562302284709919</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="12">
         <f t="shared" si="3"/>
         <v>48.283326889279223</v>
       </c>
@@ -2378,17 +2381,17 @@
       <c r="A70" s="2">
         <v>31990</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="14">
         <v>20.3</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="13">
         <v>52.463707634065599</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="12">
         <f t="shared" si="2"/>
         <v>2.2443968531468461</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="12">
         <f t="shared" si="3"/>
         <v>45.561256118880976</v>
       </c>
@@ -2398,17 +2401,17 @@
       <c r="A71" s="2">
         <v>32021</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="14">
         <v>19.5</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="12">
         <v>52.738866939838701</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="12">
         <f t="shared" si="2"/>
         <v>2.2326869565217309</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="12">
         <f t="shared" si="3"/>
         <v>43.53739565217375</v>
       </c>
@@ -2418,17 +2421,17 @@
       <c r="A72" s="2">
         <v>32051</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="14">
         <v>19.8</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="13">
         <v>52.876446592725202</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="12">
         <f t="shared" si="2"/>
         <v>2.2268777103208954</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="12">
         <f t="shared" si="3"/>
         <v>44.092178664353732</v>
       </c>
@@ -2438,17 +2441,17 @@
       <c r="A73" s="2">
         <v>32082</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="14">
         <v>18.899999999999999</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="12">
         <v>52.922306477020697</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="12">
         <f t="shared" si="2"/>
         <v>2.224948006932403</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="12">
         <f t="shared" si="3"/>
         <v>42.051517331022417</v>
       </c>
@@ -2458,17 +2461,17 @@
       <c r="A74" s="2">
         <v>32112</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="14">
         <v>17.2</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="13">
         <v>52.922306477020697</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="12">
         <f t="shared" si="2"/>
         <v>2.224948006932403</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="12">
         <f t="shared" si="3"/>
         <v>38.269105719237331</v>
       </c>
@@ -2478,17 +2481,17 @@
       <c r="A75" s="2">
         <v>32143</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="14">
         <v>17.2</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="12">
         <v>53.059886129907298</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="12">
         <f t="shared" si="2"/>
         <v>2.2191789109766549</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="12">
         <f t="shared" si="3"/>
         <v>38.169877268798466</v>
       </c>
@@ -2498,17 +2501,17 @@
       <c r="A76" s="2">
         <v>32174</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="14">
         <v>16.8</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="13">
         <v>53.197465782793799</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="12">
         <f t="shared" si="2"/>
         <v>2.2134396551724067</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="12">
         <f t="shared" si="3"/>
         <v>37.185786206896431</v>
       </c>
@@ -2518,17 +2521,17 @@
       <c r="A77" s="2">
         <v>32203</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="14">
         <v>16.2</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="12">
         <v>53.426765204271398</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="12">
         <f t="shared" si="2"/>
         <v>2.2039399141630813</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="12">
         <f t="shared" si="3"/>
         <v>35.703826609441919</v>
       </c>
@@ -2538,17 +2541,17 @@
       <c r="A78" s="2">
         <v>32234</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="14">
         <v>17.899999999999999</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="13">
         <v>53.7019245100444</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="12">
         <f t="shared" si="2"/>
         <v>2.1926473099914543</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="12">
         <f t="shared" si="3"/>
         <v>39.248386848847026</v>
       </c>
@@ -2558,17 +2561,17 @@
       <c r="A79" s="2">
         <v>32264</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="14">
         <v>17.399999999999999</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="12">
         <v>53.885364047226503</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="12">
         <f t="shared" si="2"/>
         <v>2.1851829787233958</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="12">
         <f t="shared" si="3"/>
         <v>38.022183829787082</v>
       </c>
@@ -2578,17 +2581,17 @@
       <c r="A80" s="2">
         <v>32295</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="14">
         <v>16.5</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="13">
         <v>54.114663468704101</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="12">
         <f t="shared" si="2"/>
         <v>2.1759237288135496</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="12">
         <f t="shared" si="3"/>
         <v>35.902741525423565</v>
       </c>
@@ -2598,17 +2601,17 @@
       <c r="A81" s="2">
         <v>32325</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="14">
         <v>15.5</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="12">
         <v>54.343962890181601</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="12">
         <f t="shared" si="2"/>
         <v>2.1667426160337482</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="12">
         <f t="shared" si="3"/>
         <v>33.584510548523099</v>
       </c>
@@ -2618,17 +2621,17 @@
       <c r="A82" s="2">
         <v>32356</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="14">
         <v>15.5</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="13">
         <v>54.573262311659199</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="12">
         <f t="shared" si="2"/>
         <v>2.157638655462176</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82" s="12">
         <f t="shared" si="3"/>
         <v>33.443399159663727</v>
       </c>
@@ -2638,17 +2641,17 @@
       <c r="A83" s="2">
         <v>32387</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="14">
         <v>14.5</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="12">
         <v>54.940141386023299</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="12">
         <f t="shared" si="2"/>
         <v>2.1432303839732798</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E83" s="12">
         <f t="shared" si="3"/>
         <v>31.076840567612557</v>
       </c>
@@ -2658,17 +2661,17 @@
       <c r="A84" s="2">
         <v>32417</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="14">
         <v>13.8</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="13">
         <v>55.123580923205303</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="12">
         <f t="shared" si="2"/>
         <v>2.1360981697171311</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E84" s="12">
         <f t="shared" si="3"/>
         <v>29.478154742096411</v>
       </c>
@@ -2678,17 +2681,17 @@
       <c r="A85" s="2">
         <v>32448</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="14">
         <v>14</v>
       </c>
-      <c r="C85" s="14">
+      <c r="C85" s="12">
         <v>55.169440807500798</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D85" s="12">
         <f t="shared" si="2"/>
         <v>2.1343225270157875</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E85" s="12">
         <f t="shared" si="3"/>
         <v>29.880515378221027</v>
       </c>
@@ -2698,17 +2701,17 @@
       <c r="A86" s="2">
         <v>32478</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="14">
         <v>16.3</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="13">
         <v>55.261160576091903</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="12">
         <f t="shared" si="2"/>
         <v>2.1307800829875423</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E86" s="12">
         <f t="shared" si="3"/>
         <v>34.731715352696938</v>
       </c>
@@ -2718,17 +2721,17 @@
       <c r="A87" s="2">
         <v>32509</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="14">
         <v>18</v>
       </c>
-      <c r="C87" s="14">
+      <c r="C87" s="12">
         <v>55.536319881864898</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D87" s="12">
         <f t="shared" si="2"/>
         <v>2.1202229562345103</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="12">
         <f t="shared" si="3"/>
         <v>38.164013212221185</v>
       </c>
@@ -2738,17 +2741,17 @@
       <c r="A88" s="2">
         <v>32540</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="14">
         <v>17.8</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="13">
         <v>55.765619303342497</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D88" s="12">
         <f t="shared" si="2"/>
         <v>2.1115049342105183</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E88" s="12">
         <f t="shared" si="3"/>
         <v>37.584787828947228</v>
       </c>
@@ -2758,17 +2761,17 @@
       <c r="A89" s="2">
         <v>32568</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="14">
         <v>19.399999999999999</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C89" s="12">
         <v>56.086638493411101</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="12">
         <f t="shared" si="2"/>
         <v>2.0994194603434089</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="12">
         <f t="shared" si="3"/>
         <v>40.72873753066213</v>
       </c>
@@ -2778,17 +2781,17 @@
       <c r="A90" s="2">
         <v>32599</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="14">
         <v>21</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="13">
         <v>56.453517567775201</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D90" s="12">
         <f t="shared" si="2"/>
         <v>2.0857757920389837</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="12">
         <f t="shared" si="3"/>
         <v>43.801291632818661</v>
       </c>
@@ -2798,17 +2801,17 @@
       <c r="A91" s="2">
         <v>32629</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="14">
         <v>20</v>
       </c>
-      <c r="C91" s="14">
+      <c r="C91" s="12">
         <v>56.774536757843798</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D91" s="12">
         <f t="shared" si="2"/>
         <v>2.0739822294022523</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="12">
         <f t="shared" si="3"/>
         <v>41.479644588045048</v>
       </c>
@@ -2818,17 +2821,17 @@
       <c r="A92" s="2">
         <v>32660</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="14">
         <v>20</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="13">
         <v>56.912116410730299</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D92" s="12">
         <f t="shared" si="2"/>
         <v>2.0689685737308543</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="12">
         <f t="shared" si="3"/>
         <v>41.379371474617088</v>
       </c>
@@ -2838,17 +2841,17 @@
       <c r="A93" s="2">
         <v>32690</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="14">
         <v>19.600000000000001</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="12">
         <v>57.0496960636168</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D93" s="12">
         <f t="shared" si="2"/>
         <v>2.0639790996784497</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="12">
         <f t="shared" si="3"/>
         <v>40.45399035369762</v>
       </c>
@@ -2858,17 +2861,17 @@
       <c r="A94" s="2">
         <v>32721</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="14">
         <v>18.5</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="13">
         <v>57.141415832207798</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D94" s="12">
         <f t="shared" si="2"/>
         <v>2.0606661316211818</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94" s="12">
         <f t="shared" si="3"/>
         <v>38.122323434991863</v>
       </c>
@@ -2878,17 +2881,17 @@
       <c r="A95" s="2">
         <v>32752</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="14">
         <v>19.600000000000001</v>
       </c>
-      <c r="C95" s="14">
+      <c r="C95" s="12">
         <v>57.324855369389901</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D95" s="12">
         <f t="shared" si="2"/>
         <v>2.0540719999999921</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="12">
         <f t="shared" si="3"/>
         <v>40.259811199999845</v>
       </c>
@@ -11172,6 +11175,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F455" xr:uid="{797C0116-752D-49C8-9CA4-1CDAB91BF40C}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
